--- a/郑州求职不推荐公司指南.xlsx
+++ b/郑州求职不推荐公司指南.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="227">
   <si>
     <t>郑州求职不推荐公司指南</t>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <sz val="12.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">本表意在方便广大IT行业的从业者，在找工作时有一个参照，请填表的各位老爷秉承公平客观的态度来填写。
 建议参考第一个和第二个公司的写法, 如果拖欠工资写明拖欠工资的时间以及范围; 公司管理有问题, 可以举例写清楚具体问题。
@@ -30,10 +31,10 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <color rgb="FF0000"/>
+        <charset val="134"/>
       </rPr>
       <t>如果有信息需要提供的可以加微信群，备注：个人名称_岗位</t>
     </r>
@@ -760,74 +761,426 @@
   <si>
     <t>北京宇信科技集团有限公司 郑州办事处(让你签厦门或珠海公司合同，郑州没公司)   纯银行外包公司加班没加班费，没调休，每月20号要报工，如果没报上就没一分工资了，确实你是加班到晚上凌晨1点还是几点都只有20块钱餐费，公司都是老技术，领导没人情味，公司没人情味，没年终奖，没年终奖，项目奖金最少要2年，而且只有1千块钱，没项目就让让你出差，不然各种手段逼你主动离职。如果在这公司扩展到中原银行，那你就倒霉到家了，每周都是单休而且晚上都是11点才下班，早上9点就得上班，一个月才报销150车费（不管你花了多少钱，而且你自己提供发票），220餐补（按规定是一天20），也就是11天饭钱。一旦没项目，立马逼你出差，不然让你主动离职。各种套路。领导也是一群垃圾。</t>
   </si>
+  <si>
+    <t>河南欣宜嘉医疗科技有限公司
+/河南迪富信息股份有限公司
+/迪富互联</t>
+  </si>
+  <si>
+    <t>这三家公司其实都是一个老板，办公也在一起。公司号称100多个人的互联网公司，结果管事的连电脑都不会用。互联网公司断网一周没人管，舔狗(以王旭总之流为代表)当道。
+每天办公室监控员工电脑，骗人进来实习去地市出差996，项目做的差不多就直接说实习不合格开了。不懂技术的管技术部，骗来
+骗去开始拿老员工开刀，迪富信息强制降薪到1800逼人走。骗不下去就天天拿什么okr洗脑，欣宜嘉故意拖欠工资逼人走。一帮人天天拿着PPT吹来骗去。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="28">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
       <name val="宋体"/>
-      <sz val="16.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
-      <sz val="12.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="宋体"/>
-      <sz val="10.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="CFCFCF"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFCFCF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CFCFCF"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -835,301 +1188,460 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
     <border>
-      <bottom>
-        <color rgb="CFCFCF"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
-    </border>
-    <border>
-      <top>
-        <color rgb="CFCFCF"/>
+      <left style="thin">
+        <color rgb="FFCFCFCF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCFCFCF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCFCFCF"/>
       </top>
       <bottom style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFCFCFCF"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="CFCFCF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="CFCFCF"/>
-      </left>
-      <top style="thin">
-        <color rgb="CFCFCF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFCFCFCF"/>
       </left>
+      <right style="thin">
+        <color rgb="FFCFCFCF"/>
+      </right>
       <top style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFCFCFCF"/>
       </top>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFCFCFCF"/>
       </left>
-      <right>
-        <color rgb="CFCFCF"/>
+      <right style="thin">
+        <color rgb="FFCFCFCF"/>
       </right>
-      <top style="thin">
-        <color rgb="CFCFCF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFCFCFCF"/>
       </left>
       <right style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFCFCFCF"/>
       </right>
-      <top style="thin">
-        <color rgb="CFCFCF"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFCFCFCF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top>
-        <color rgb="CFCFCF"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="CFCFCF"/>
+        <color theme="4"/>
       </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="CFCFCF"/>
-      </left>
-      <top style="thin">
-        <color rgb="CFCFCF"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFB2B2B2"/>
       </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right>
-        <color rgb="CFCFCF"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="CFCFCF"/>
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="CFCFCF"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CFCFCF"/>
-      </left>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CFCFCF"/>
-      </left>
-      <right>
-        <color rgb="CFCFCF"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CFCFCF"/>
-      </left>
-      <right style="thin">
-        <color rgb="CFCFCF"/>
-      </right>
-    </border>
-    <border>
-      <left>
-        <color rgb="CFCFCF"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CFCFCF"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CFCFCF"/>
-      </left>
-      <right>
-        <color rgb="CFCFCF"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CFCFCF"/>
-      </left>
-      <right style="thin">
-        <color rgb="CFCFCF"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="CFCFCF"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  </cellStyles>
+  <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="2B2B2B"/>
+        <color rgb="FF2B2B2B"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FBD4D0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="2B2B2B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FBD4D0"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFBD4D0"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1145,9 +1657,9 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1158,8 +1670,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4432300" y="0"/>
-          <a:ext cx="1917700" cy="1533525"/>
+          <a:off x="8089900" y="0"/>
+          <a:ext cx="1917700" cy="2222500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1171,35 +1683,280 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.666666666666664"/>
-    <col min="2" max="2" width="15.333333333333334"/>
-    <col min="3" max="3" width="111.33333333333333"/>
+    <col min="1" max="1" width="32.6666666666667"/>
+    <col min="2" max="2" width="15.3333333333333"/>
+    <col min="3" max="3" width="111.333333333333"/>
     <col min="4" max="4" width="25.5"/>
-    <col min="5" max="5" width="8.666666666666666"/>
-    <col min="6" max="6" width="8.666666666666666"/>
-    <col min="7" max="7" width="8.666666666666666"/>
-    <col min="8" max="8" width="8.666666666666666"/>
-    <col min="9" max="9" width="8.666666666666666"/>
-    <col min="10" max="10" width="8.666666666666666"/>
-    <col min="11" max="11" width="8.666666666666666"/>
-    <col min="12" max="12" width="8.666666666666666"/>
-    <col min="13" max="13" width="8.666666666666666"/>
-    <col min="14" max="14" width="8.666666666666666"/>
-    <col min="15" max="15" width="8.666666666666666"/>
-    <col min="16" max="16" width="8.666666666666666"/>
-    <col min="17" max="17" width="8.666666666666666"/>
-    <col min="18" max="18" width="8.666666666666666"/>
+    <col min="5" max="18" width="8.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" ht="70.0" customHeight="true">
+    <row r="1" ht="70" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1964,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="107.0" customHeight="true">
+    <row r="2" ht="107" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1215,7 +1972,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="36.0" customHeight="true">
+    <row r="3" ht="36" customHeight="1" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +2000,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" ht="29.0" customHeight="true">
+    <row r="4" ht="29" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +2012,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" ht="48.0" customHeight="true">
+    <row r="5" ht="48" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +2024,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" ht="29.0" customHeight="true">
+    <row r="6" ht="29" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +2036,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" ht="29.0" customHeight="true">
+    <row r="7" ht="29" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +2048,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" ht="29.0" customHeight="true">
+    <row r="8" ht="29" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1301,7 +2058,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" ht="29.0" customHeight="true">
+    <row r="9" ht="29" customHeight="1" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +2068,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="32.0" customHeight="true">
+    <row r="10" ht="32" customHeight="1" spans="1:4">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +2080,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" ht="128.0" customHeight="true">
+    <row r="11" ht="128" customHeight="1" spans="1:4">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
@@ -1331,7 +2088,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" ht="29.0" customHeight="true">
+    <row r="12" ht="29" customHeight="1" spans="1:4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="6" t="s">
@@ -1339,7 +2096,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" ht="176.0" customHeight="true">
+    <row r="13" ht="176" customHeight="1" spans="1:4">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1351,7 +2108,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" ht="48.0" customHeight="true">
+    <row r="14" ht="48" customHeight="1" spans="1:4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
@@ -1359,7 +2116,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" ht="64.0" customHeight="true">
+    <row r="15" ht="64" customHeight="1" spans="1:4">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
@@ -1367,8 +2124,8 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" ht="32.0" customHeight="true">
-      <c r="A16" s="12" t="s">
+    <row r="16" ht="32" customHeight="1" spans="1:4">
+      <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1379,7 +2136,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" ht="29.0" customHeight="true">
+    <row r="17" ht="29" customHeight="1" spans="1:4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
@@ -1387,15 +2144,15 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" ht="64.0" customHeight="true">
+    <row r="18" ht="64" customHeight="1" spans="1:4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" ht="80.0" customHeight="true">
+    <row r="19" ht="80" customHeight="1" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -1407,7 +2164,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" ht="29.0" customHeight="true">
+    <row r="20" ht="29" customHeight="1" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
@@ -1417,7 +2174,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" ht="29.0" customHeight="true">
+    <row r="21" ht="29" customHeight="1" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1427,7 +2184,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" ht="29.0" customHeight="true">
+    <row r="22" ht="29" customHeight="1" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1439,7 +2196,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" ht="29.0" customHeight="true">
+    <row r="23" ht="29" customHeight="1" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1451,7 +2208,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" ht="29.0" customHeight="true">
+    <row r="24" ht="29" customHeight="1" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1461,7 +2218,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" ht="29.0" customHeight="true">
+    <row r="25" ht="29" customHeight="1" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -1473,7 +2230,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" ht="29.0" customHeight="true">
+    <row r="26" ht="29" customHeight="1" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>54</v>
       </c>
@@ -1483,7 +2240,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" ht="32.0" customHeight="true">
+    <row r="27" ht="32" customHeight="1" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
@@ -1495,23 +2252,23 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" ht="34.0" customHeight="true">
+    <row r="28" ht="34" customHeight="1" spans="1:4">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" ht="29.0" customHeight="true">
+    <row r="29" ht="29" customHeight="1" spans="1:4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" ht="29.0" customHeight="true">
+    <row r="30" ht="29" customHeight="1" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +2280,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" ht="29.0" customHeight="true">
+    <row r="31" ht="29" customHeight="1" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
@@ -1535,41 +2292,41 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" ht="29.0" customHeight="true">
+    <row r="32" ht="29" customHeight="1" spans="1:4">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" ht="29.0" customHeight="true">
+    <row r="33" ht="29" customHeight="1" spans="1:4">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" ht="48.0" customHeight="true">
-      <c r="A34" s="15" t="n">
-        <v>863.0</v>
-      </c>
-      <c r="B34" s="16"/>
+    <row r="34" ht="48" customHeight="1" spans="1:4">
+      <c r="A34" s="14">
+        <v>863</v>
+      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" ht="29.0" customHeight="true">
+    <row r="35" ht="29" customHeight="1" spans="1:4">
       <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" ht="48.0" customHeight="true">
+    <row r="36" ht="48" customHeight="1" spans="1:4">
       <c r="A36" s="5" t="s">
         <v>71</v>
       </c>
@@ -1579,7 +2336,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" ht="29.0" customHeight="true">
+    <row r="37" ht="29" customHeight="1" spans="1:4">
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
@@ -1589,15 +2346,15 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" ht="29.0" customHeight="true">
+    <row r="38" ht="29" customHeight="1" spans="1:4">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" ht="29.0" customHeight="true">
+    <row r="39" ht="29" customHeight="1" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
@@ -1607,7 +2364,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" ht="29.0" customHeight="true">
+    <row r="40" ht="29" customHeight="1" spans="1:4">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -1617,7 +2374,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" ht="29.0" customHeight="true">
+    <row r="41" ht="29" customHeight="1" spans="1:4">
       <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
@@ -1627,19 +2384,19 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" ht="32.0" customHeight="true">
+    <row r="42" ht="32" customHeight="1" spans="1:4">
       <c r="A42" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" ht="29.0" customHeight="true">
+    <row r="43" ht="29" customHeight="1" spans="1:4">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="6" t="s">
@@ -1647,7 +2404,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" ht="80.0" customHeight="true">
+    <row r="44" ht="80" customHeight="1" spans="1:4">
       <c r="A44" s="5" t="s">
         <v>85</v>
       </c>
@@ -1659,7 +2416,7 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" ht="48.0" customHeight="true">
+    <row r="45" ht="48" customHeight="1" spans="1:4">
       <c r="A45" s="5" t="s">
         <v>88</v>
       </c>
@@ -1671,7 +2428,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" ht="80.0" customHeight="true">
+    <row r="46" ht="80" customHeight="1" spans="1:4">
       <c r="A46" s="5" t="s">
         <v>91</v>
       </c>
@@ -1681,25 +2438,25 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" ht="48.0" customHeight="true">
+    <row r="47" ht="48" customHeight="1" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" ht="29.0" customHeight="true">
+    <row r="48" ht="29" customHeight="1" spans="1:4">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" ht="32.0" customHeight="true">
+    <row r="49" ht="32" customHeight="1" spans="1:4">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="6" t="s">
@@ -1707,19 +2464,19 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" ht="29.0" customHeight="true">
+    <row r="50" ht="29" customHeight="1" spans="1:4">
       <c r="A50" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" ht="48.0" customHeight="true">
+    <row r="51" ht="48" customHeight="1" spans="1:4">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="6" t="s">
@@ -1727,7 +2484,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" ht="32.0" customHeight="true">
+    <row r="52" ht="32" customHeight="1" spans="1:4">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -1739,7 +2496,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" ht="32.0" customHeight="true">
+    <row r="53" ht="32" customHeight="1" spans="1:4">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
         <v>104</v>
@@ -1749,7 +2506,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" ht="29.0" customHeight="true">
+    <row r="54" ht="29" customHeight="1" spans="1:4">
       <c r="A54" s="5" t="s">
         <v>106</v>
       </c>
@@ -1761,7 +2518,7 @@
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" ht="29.0" customHeight="true">
+    <row r="55" ht="29" customHeight="1" spans="1:4">
       <c r="A55" s="5" t="s">
         <v>109</v>
       </c>
@@ -1771,7 +2528,7 @@
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" ht="29.0" customHeight="true">
+    <row r="56" ht="29" customHeight="1" spans="1:4">
       <c r="A56" s="5" t="s">
         <v>111</v>
       </c>
@@ -1783,7 +2540,7 @@
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" ht="32.0" customHeight="true">
+    <row r="57" ht="32" customHeight="1" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>114</v>
       </c>
@@ -1793,7 +2550,7 @@
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" ht="29.0" customHeight="true">
+    <row r="58" ht="29" customHeight="1" spans="1:4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="6" t="s">
@@ -1801,7 +2558,7 @@
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" ht="32.0" customHeight="true">
+    <row r="59" ht="32" customHeight="1" spans="1:4">
       <c r="A59" s="5" t="s">
         <v>117</v>
       </c>
@@ -1813,7 +2570,7 @@
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" ht="96.0" customHeight="true">
+    <row r="60" ht="96" customHeight="1" spans="1:4">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
@@ -1823,8 +2580,8 @@
       </c>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" ht="29.0" customHeight="true">
-      <c r="A61" s="18" t="s">
+    <row r="61" ht="29" customHeight="1" spans="1:4">
+      <c r="A61" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -1835,23 +2592,23 @@
       </c>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" ht="29.0" customHeight="true">
-      <c r="A62" s="16"/>
+    <row r="62" ht="29" customHeight="1" spans="1:4">
+      <c r="A62" s="15"/>
       <c r="B62" s="10"/>
       <c r="C62" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" ht="29.0" customHeight="true">
-      <c r="A63" s="17"/>
+    <row r="63" ht="29" customHeight="1" spans="1:4">
+      <c r="A63" s="16"/>
       <c r="B63" s="11"/>
       <c r="C63" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" ht="32.0" customHeight="true">
+    <row r="64" ht="32" customHeight="1" spans="1:4">
       <c r="A64" s="5" t="s">
         <v>127</v>
       </c>
@@ -1863,11 +2620,11 @@
       </c>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" ht="32.0" customHeight="true">
+    <row r="65" ht="32" customHeight="1" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -1875,15 +2632,15 @@
       </c>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" ht="32.0" customHeight="true">
+    <row r="66" ht="32" customHeight="1" spans="1:4">
       <c r="A66" s="11"/>
-      <c r="B66" s="17"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" ht="29.0" customHeight="true">
+    <row r="67" ht="29" customHeight="1" spans="1:4">
       <c r="A67" s="5" t="s">
         <v>134</v>
       </c>
@@ -1895,7 +2652,7 @@
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" ht="32.0" customHeight="true">
+    <row r="68" ht="32" customHeight="1" spans="1:4">
       <c r="A68" s="5" t="s">
         <v>137</v>
       </c>
@@ -1907,7 +2664,7 @@
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" ht="32.0" customHeight="true">
+    <row r="69" ht="32" customHeight="1" spans="1:4">
       <c r="A69" s="5" t="s">
         <v>140</v>
       </c>
@@ -1919,7 +2676,7 @@
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" ht="29.0" customHeight="true">
+    <row r="70" ht="29" customHeight="1" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>143</v>
       </c>
@@ -1931,7 +2688,7 @@
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" ht="96.0" customHeight="true">
+    <row r="71" ht="96" customHeight="1" spans="1:4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="6" t="s">
@@ -1939,7 +2696,7 @@
       </c>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" ht="29.0" customHeight="true">
+    <row r="72" ht="29" customHeight="1" spans="1:4">
       <c r="A72" s="5" t="s">
         <v>147</v>
       </c>
@@ -1949,35 +2706,35 @@
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" ht="64.0" customHeight="true">
+    <row r="73" ht="64" customHeight="1" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="18" t="s">
         <v>151</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" ht="64.0" customHeight="true">
+    <row r="74" ht="64" customHeight="1" spans="1:4">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="18" t="s">
         <v>152</v>
       </c>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" ht="48.0" customHeight="true">
+    <row r="75" ht="48" customHeight="1" spans="1:4">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="18" t="s">
         <v>153</v>
       </c>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" ht="29.0" customHeight="true">
+    <row r="76" ht="29" customHeight="1" spans="1:4">
       <c r="A76" s="5" t="s">
         <v>154</v>
       </c>
@@ -1989,7 +2746,7 @@
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" ht="29.0" customHeight="true">
+    <row r="77" ht="29" customHeight="1" spans="1:4">
       <c r="A77" s="5" t="s">
         <v>157</v>
       </c>
@@ -1999,7 +2756,7 @@
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" ht="32.0" customHeight="true">
+    <row r="78" ht="32" customHeight="1" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>159</v>
       </c>
@@ -2011,7 +2768,7 @@
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" ht="29.0" customHeight="true">
+    <row r="79" ht="29" customHeight="1" spans="1:4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="6" t="s">
@@ -2019,7 +2776,7 @@
       </c>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" ht="29.0" customHeight="true">
+    <row r="80" ht="29" customHeight="1" spans="1:4">
       <c r="A80" s="5" t="s">
         <v>163</v>
       </c>
@@ -2031,7 +2788,7 @@
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" ht="48.0" customHeight="true">
+    <row r="81" ht="48" customHeight="1" spans="1:4">
       <c r="A81" s="5" t="s">
         <v>166</v>
       </c>
@@ -2041,7 +2798,7 @@
       </c>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" ht="32.0" customHeight="true">
+    <row r="82" ht="32" customHeight="1" spans="1:4">
       <c r="A82" s="5" t="s">
         <v>168</v>
       </c>
@@ -2051,7 +2808,7 @@
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" ht="29.0" customHeight="true">
+    <row r="83" ht="29" customHeight="1" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>170</v>
       </c>
@@ -2061,7 +2818,7 @@
       </c>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" ht="64.0" customHeight="true">
+    <row r="84" ht="64" customHeight="1" spans="1:4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="6" t="s">
@@ -2069,7 +2826,7 @@
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" ht="29.0" customHeight="true">
+    <row r="85" ht="29" customHeight="1" spans="1:4">
       <c r="A85" s="5" t="s">
         <v>173</v>
       </c>
@@ -2077,7 +2834,7 @@
       <c r="C85" s="6"/>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" ht="29.0" customHeight="true">
+    <row r="86" ht="29" customHeight="1" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>174</v>
       </c>
@@ -2087,7 +2844,7 @@
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" ht="32.0" customHeight="true">
+    <row r="87" ht="32" customHeight="1" spans="1:4">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="6" t="s">
@@ -2095,17 +2852,17 @@
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" ht="29.0" customHeight="true">
+    <row r="88" ht="29" customHeight="1" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="13" t="s">
         <v>178</v>
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" ht="29.0" customHeight="true">
+    <row r="89" ht="29" customHeight="1" spans="1:4">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="6" t="s">
@@ -2113,7 +2870,7 @@
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" ht="32.0" customHeight="true">
+    <row r="90" ht="32" customHeight="1" spans="1:4">
       <c r="A90" s="9" t="s">
         <v>180</v>
       </c>
@@ -2123,7 +2880,7 @@
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" ht="48.0" customHeight="true">
+    <row r="91" ht="48" customHeight="1" spans="1:4">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="6" t="s">
@@ -2131,7 +2888,7 @@
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" ht="29.0" customHeight="true">
+    <row r="92" ht="29" customHeight="1" spans="1:4">
       <c r="A92" s="5" t="s">
         <v>183</v>
       </c>
@@ -2143,7 +2900,7 @@
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" ht="32.0" customHeight="true">
+    <row r="93" ht="32" customHeight="1" spans="1:4">
       <c r="A93" s="5" t="s">
         <v>186</v>
       </c>
@@ -2155,7 +2912,7 @@
       </c>
       <c r="D93" s="8"/>
     </row>
-    <row r="94" ht="32.0" customHeight="true">
+    <row r="94" ht="32" customHeight="1" spans="1:4">
       <c r="A94" s="5" t="s">
         <v>189</v>
       </c>
@@ -2165,7 +2922,7 @@
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" ht="64.0" customHeight="true">
+    <row r="95" ht="64" customHeight="1" spans="1:4">
       <c r="A95" s="5" t="s">
         <v>191</v>
       </c>
@@ -2177,7 +2934,7 @@
       </c>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" ht="66.0" customHeight="true">
+    <row r="96" ht="66" customHeight="1" spans="1:4">
       <c r="A96" s="5" t="s">
         <v>194</v>
       </c>
@@ -2189,7 +2946,7 @@
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" ht="29.0" customHeight="true">
+    <row r="97" ht="29" customHeight="1" spans="1:4">
       <c r="A97" s="5" t="s">
         <v>197</v>
       </c>
@@ -2199,8 +2956,8 @@
       <c r="C97" s="6"/>
       <c r="D97" s="8"/>
     </row>
-    <row r="98" ht="64.0" customHeight="true">
-      <c r="A98" s="20" t="s">
+    <row r="98" ht="64" customHeight="1" spans="1:4">
+      <c r="A98" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -2211,7 +2968,7 @@
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" ht="44.0" customHeight="true">
+    <row r="99" ht="44" customHeight="1" spans="1:4">
       <c r="A99" s="5" t="s">
         <v>202</v>
       </c>
@@ -2223,7 +2980,7 @@
       </c>
       <c r="D99" s="8"/>
     </row>
-    <row r="100" ht="29.0" customHeight="true">
+    <row r="100" ht="29" customHeight="1" spans="1:4">
       <c r="A100" s="5" t="s">
         <v>205</v>
       </c>
@@ -2235,17 +2992,17 @@
       </c>
       <c r="D100" s="8"/>
     </row>
-    <row r="101" ht="29.0" customHeight="true">
+    <row r="101" ht="29" customHeight="1" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B101" s="9"/>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="13" t="s">
         <v>209</v>
       </c>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" ht="29.0" customHeight="true">
+    <row r="102" ht="29" customHeight="1" spans="1:4">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="6" t="s">
@@ -2253,7 +3010,7 @@
       </c>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" ht="64.0" customHeight="true">
+    <row r="103" ht="64" customHeight="1" spans="1:4">
       <c r="A103" s="5" t="s">
         <v>211</v>
       </c>
@@ -2265,7 +3022,7 @@
       </c>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" ht="29.0" customHeight="true">
+    <row r="104" ht="29" customHeight="1" spans="1:4">
       <c r="A104" s="5" t="s">
         <v>214</v>
       </c>
@@ -2277,7 +3034,7 @@
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" ht="64.0" customHeight="true">
+    <row r="105" ht="64" customHeight="1" spans="1:4">
       <c r="A105" s="5" t="s">
         <v>217</v>
       </c>
@@ -2289,7 +3046,7 @@
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" ht="42.0" customHeight="true">
+    <row r="106" ht="42" customHeight="1" spans="1:4">
       <c r="A106" s="5" t="s">
         <v>220</v>
       </c>
@@ -2301,239 +3058,197 @@
       </c>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" ht="96.0" customHeight="true">
-      <c r="A107" s="21" t="s">
+    <row r="107" ht="96" customHeight="1" spans="1:3">
+      <c r="A107" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B107" s="22"/>
-      <c r="C107" s="23" t="s">
+      <c r="B107" s="20"/>
+      <c r="C107" s="21" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108" ht="29.0" customHeight="true">
-      <c r="C108" s="24"/>
-    </row>
-    <row r="109" ht="29.0" customHeight="true">
+    <row r="108" ht="29" customHeight="1" spans="1:3">
+      <c r="A108" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B108" s="23"/>
+      <c r="C108" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" ht="29" customHeight="1" spans="1:3">
+      <c r="A109" s="22"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="24"/>
     </row>
-    <row r="110" ht="29.0" customHeight="true">
+    <row r="110" ht="29" customHeight="1" spans="1:3">
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="24"/>
     </row>
-    <row r="111" ht="29.0" customHeight="true">
-      <c r="C111" s="24"/>
-    </row>
-    <row r="112" ht="29.0" customHeight="true">
-      <c r="C112" s="24"/>
-    </row>
-    <row r="113" ht="29.0" customHeight="true">
-      <c r="C113" s="24"/>
-    </row>
-    <row r="114" ht="29.0" customHeight="true">
-      <c r="C114" s="24"/>
-    </row>
-    <row r="115" ht="29.0" customHeight="true">
-      <c r="C115" s="24"/>
-    </row>
-    <row r="116" ht="29.0" customHeight="true">
-      <c r="C116" s="24"/>
-    </row>
-    <row r="117">
-      <c r="C117" s="24"/>
-    </row>
-    <row r="118">
-      <c r="C118" s="24"/>
-    </row>
-    <row r="119">
-      <c r="C119" s="24"/>
-    </row>
-    <row r="120">
-      <c r="C120" s="24"/>
-    </row>
-    <row r="121">
-      <c r="C121" s="24"/>
-    </row>
-    <row r="122">
-      <c r="C122" s="24"/>
-    </row>
-    <row r="123">
-      <c r="C123" s="24"/>
-    </row>
-    <row r="124">
-      <c r="C124" s="24"/>
-    </row>
-    <row r="125">
-      <c r="C125" s="24"/>
-    </row>
-    <row r="126">
-      <c r="C126" s="24"/>
-    </row>
-    <row r="127">
-      <c r="C127" s="24"/>
-    </row>
-    <row r="128">
-      <c r="C128" s="24"/>
-    </row>
-    <row r="129">
-      <c r="C129" s="24"/>
-    </row>
-    <row r="130">
-      <c r="C130" s="24"/>
-    </row>
-    <row r="131">
-      <c r="C131" s="24"/>
-    </row>
-    <row r="132">
-      <c r="C132" s="24"/>
-    </row>
-    <row r="133">
-      <c r="C133" s="24"/>
-    </row>
-    <row r="134">
-      <c r="C134" s="24"/>
-    </row>
-    <row r="135">
-      <c r="C135" s="24"/>
-    </row>
-    <row r="136">
-      <c r="C136" s="24"/>
-    </row>
-    <row r="137">
-      <c r="C137" s="24"/>
-    </row>
-    <row r="138">
-      <c r="C138" s="24"/>
-    </row>
-    <row r="139">
-      <c r="C139" s="24"/>
-    </row>
-    <row r="140">
-      <c r="C140" s="24"/>
-    </row>
-    <row r="141">
-      <c r="C141" s="24"/>
-    </row>
-    <row r="142">
-      <c r="C142" s="24"/>
-    </row>
-    <row r="143">
-      <c r="C143" s="24"/>
-    </row>
-    <row r="144">
-      <c r="C144" s="24"/>
-    </row>
-    <row r="145">
-      <c r="C145" s="24"/>
-    </row>
-    <row r="146">
-      <c r="C146" s="24"/>
-    </row>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
+    <row r="111" ht="29" customHeight="1" spans="3:3">
+      <c r="C111" s="25"/>
+    </row>
+    <row r="112" ht="29" customHeight="1" spans="3:3">
+      <c r="C112" s="25"/>
+    </row>
+    <row r="113" ht="29" customHeight="1" spans="3:3">
+      <c r="C113" s="25"/>
+    </row>
+    <row r="114" ht="29" customHeight="1" spans="3:3">
+      <c r="C114" s="25"/>
+    </row>
+    <row r="115" ht="29" customHeight="1" spans="3:3">
+      <c r="C115" s="25"/>
+    </row>
+    <row r="116" ht="29" customHeight="1" spans="3:3">
+      <c r="C116" s="25"/>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="25"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="25"/>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="25"/>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="25"/>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="25"/>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="25"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="25"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="25"/>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="25"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="25"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="25"/>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="25"/>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="25"/>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="25"/>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="25"/>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="25"/>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="25"/>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="25"/>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="25"/>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="25"/>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="25"/>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="25"/>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="25"/>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="25"/>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="25"/>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="25"/>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="25"/>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="25"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="25"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="46">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A108:A110"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A47:A49"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A83:A84"/>
     <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A86:A87"/>
     <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A88:A89"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A90:A91"/>
     <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A101:A102"/>
     <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:C116">
-    <cfRule type="top10" percent="true" rank="20" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C4:C108 C111:C116">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="20"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C116">
-    <cfRule type="aboveAverage" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/郑州求职不推荐公司指南.xlsx
+++ b/郑州求职不推荐公司指南.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="24860" windowHeight="11200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
   <si>
     <t>郑州求职不推荐公司指南</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <sz val="12.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">本表意在方便广大IT行业的从业者，在找工作时有一个参照，请填表的各位老爷秉承公平客观的态度来填写。
 建议参考第一个和第二个公司的写法, 如果拖欠工资写明拖欠工资的时间以及范围; 公司管理有问题, 可以举例写清楚具体问题。
@@ -30,38 +32,42 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <sz val="12.0"/>
-        <color rgb="FF0000"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">如果有信息需要提供的可以加微信群，备注：个人名称_岗位
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <sz val="12.0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">因目前微信群已超过200人，微信已限制不可以通过扫码入群，只能邀请入群，
+      <t>因目前微信群已超过200人，微信已限制不可以通过扫码入群，只能邀请入群，
 但考虑还有需要爆料的需求。目前暂时实施论坛留言的方式。
 论坛地址：</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="12.0"/>
+        <charset val="134"/>
       </rPr>
       <t>http://ask.foni.tech</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <sz val="12.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  
 论坛地址二维码在表格右边
@@ -69,10 +75,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFE2C23"/>
         <rFont val="宋体"/>
-        <b val="true"/>
-        <sz val="14.0"/>
-        <color rgb="FE2C23"/>
+        <charset val="134"/>
       </rPr>
       <t>为不违反法律法规，文档中具体人名已使用代称处理。</t>
     </r>
@@ -181,57 +188,65 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>高管都是骗子，鼓励员工在公司刷夜，经常洗脑，工资拖欠</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>曾上过新闻</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>但结果并未解决</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="宋体"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>，程序员能给你逼成销售，无论试用期还是转正都签一份合同，还是公司留存。</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 https://www.zhihu.com/question/346348198
@@ -254,124 +269,141 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>、技术部被一个不懂技术的二把刀子产品管着，不懂技术还喜欢指挥你，最爱说的话是这个问题一行代码就解决了</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>喜欢打小报告，在电脑上安装监控软件，时刻窥探你。任何需求都一口应承，然后甩给技术，做不出来就是你不行，喜欢刺激的请积极踊跃投递简历</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 2</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>、产品当技术部领导，可想公司有多业余，而且这个产品也是二把刀子半路出家，三十多了，人品不敢恭维，怕自己被辞退，疯狂打压技术，把技术说的一无是处，开发换了一茬又一茬只有他不动，因为公司除了他谁都不能完全了解项目（项目已经上线运营），等不到开发了解项目，他就把人挤兑走，这样他的地位越来越稳固</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 3</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>、尤其擅长打小报告，下班你不加班他说你思想不积极，你加班出去吃饭时间长说你故意拖延，总之，爱吹枕边风</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 4</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>、办公电脑</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>U</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>盘不能用，不能连外网，需要用外网要申请，电脑装的都有监控软件，可以截屏、录屏、监控文件拷贝。公司</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>wifi</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>监控访问的网址，曾有人上班用微信被罚款、辞退。啧啧啧，酸爽</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 5</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>、该公司招聘连接：</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>https://m.zhipin.com/mpa/html/weijd/weijd-job/67d3cf9c393bf1dc1H190ti7GFE~?date8=20200328&amp;sid=tosee_jd_c5dd95f3dea926cd0HB809-5EFo~</t>
     </r>
@@ -388,44 +420,50 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>点都</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">软件）上海科技有限公司
+      <t>软件）上海科技有限公司
 在郑州龙子湖也叫</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>郑州点都</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -551,22 +589,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>我擦，我当时去面试了，好像在</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Helvetica Neue"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>16</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <sz val="10.0"/>
+        <charset val="134"/>
       </rPr>
       <t>层，说的特别大，还是什么国企，五险一金，结果面了也没结果，今天看来幸好当时没去</t>
     </r>
@@ -1136,97 +1177,468 @@
   <si>
     <t>去年三月份去他们公司面试UI，当时就给他们说了不会前端，依旧让本人去上班，工作三天了，做了两个网页界面，第三天晚上说老板想要ui和前段都会，让本人走，走的时候让本人做的页面psd源文件保存到桌面，我当时什么也没说，默默删光了，第二天他们又找本人，要这三天做的界面……</t>
   </si>
+  <si>
+    <t xml:space="preserve">郑州象聚实业集团 </t>
+  </si>
+  <si>
+    <t>离职率高，招聘网站上经常更新招聘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州创恒实业有限公司 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 签署合同为：武汉智云优鸿，恶意降薪（低至1920）、变相裁员、工资发放推脱   更新日期： 2020.04.17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="12">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
       <name val="宋体"/>
-      <sz val="16.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <sz val="12.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
-      <sz val="9.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
-      <sz val="10.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Helvetica Neue"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Helvetica Neue"/>
-      <sz val="9.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="宋体"/>
-      <sz val="10.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="微软雅黑"/>
-      <sz val="10.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFE2C23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="CFCFCF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFCFCF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CFCFCF"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1234,239 +1646,457 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
     <border>
-      <bottom>
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top>
-        <color rgb="000000"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right>
-        <color rgb="000000"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top>
-        <color rgb="000000"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-    </border>
-    <border>
-      <left>
-        <color rgb="000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF7F7F7F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right>
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1482,9 +2112,9 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1495,8 +2125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="177800"/>
-          <a:ext cx="1333500" cy="1254125"/>
+          <a:off x="7228840" y="177800"/>
+          <a:ext cx="1333500" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,1573 +2138,1845 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="3.0" state="frozen" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="5.666666666666667"/>
-    <col min="2" max="2" width="26.0"/>
-    <col min="3" max="3" width="15.333333333333334"/>
-    <col min="4" max="4" width="111.33333333333333"/>
+    <col min="1" max="1" width="5.66964285714286"/>
+    <col min="2" max="2" width="26"/>
+    <col min="3" max="3" width="15.3303571428571"/>
+    <col min="4" max="4" width="111.330357142857"/>
     <col min="5" max="5" width="25.5"/>
-    <col min="6" max="6" width="26.166666666666668"/>
-    <col min="7" max="7" width="25.166666666666668"/>
-    <col min="8" max="8" width="8.666666666666666"/>
-    <col min="9" max="9" width="8.666666666666666"/>
-    <col min="10" max="10" width="8.666666666666666"/>
-    <col min="11" max="11" width="8.666666666666666"/>
-    <col min="12" max="12" width="8.666666666666666"/>
-    <col min="13" max="13" width="8.666666666666666"/>
-    <col min="14" max="14" width="8.666666666666666"/>
-    <col min="15" max="15" width="8.666666666666666"/>
-    <col min="16" max="16" width="8.666666666666666"/>
-    <col min="17" max="17" width="8.666666666666666"/>
-    <col min="18" max="18" width="8.666666666666666"/>
-    <col min="19" max="19" width="8.666666666666666"/>
-    <col min="20" max="20" width="8.666666666666666"/>
+    <col min="6" max="6" width="26.1696428571429"/>
+    <col min="7" max="7" width="25.1696428571429"/>
+    <col min="8" max="20" width="8.66964285714286"/>
   </cols>
   <sheetData>
-    <row r="1" ht="70.0" customHeight="true">
+    <row r="1" ht="70" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="129.0" customHeight="true">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" ht="129" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="36.0" customHeight="true">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:20">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" ht="43.0" customHeight="true">
-      <c r="A4" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" ht="43" customHeight="1" spans="1:20">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" ht="43.0" customHeight="true">
-      <c r="A5" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" ht="43" customHeight="1" spans="1:7">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="43.0" customHeight="true">
-      <c r="A6" s="7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" ht="43" customHeight="1" spans="1:7">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="52.0" customHeight="true">
-      <c r="A7" s="7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" ht="52" customHeight="1" spans="1:7">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="43.0" customHeight="true">
-      <c r="A8" s="7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" ht="43" customHeight="1" spans="1:7">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="43.0" customHeight="true">
-      <c r="A9" s="7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" ht="43" customHeight="1" spans="1:7">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="43.0" customHeight="true">
-      <c r="A10" s="7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" ht="43" customHeight="1" spans="1:7">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="43.0" customHeight="true">
-      <c r="A11" s="7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" ht="43" customHeight="1" spans="1:7">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="112.0" customHeight="true">
-      <c r="A12" s="7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" ht="112" customHeight="1" spans="1:7">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" ht="182.0" customHeight="true">
-      <c r="A13" s="7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" ht="182" customHeight="1" spans="1:7">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" ht="168.0" customHeight="true">
-      <c r="A14" s="7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="19" t="s">
+    <row r="14" ht="168" customHeight="1" spans="1:7">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="56.0" customHeight="true">
-      <c r="A15" s="7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="15" ht="56" customHeight="1" spans="1:7">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="43.0" customHeight="true">
-      <c r="A16" s="7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" ht="43" customHeight="1" spans="1:7">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="43.0" customHeight="true">
-      <c r="A17" s="7" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" ht="43" customHeight="1" spans="1:7">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="43.0" customHeight="true">
-      <c r="A18" s="7" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" ht="43" customHeight="1" spans="1:7">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="43.0" customHeight="true">
-      <c r="A19" s="7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" ht="43" customHeight="1" spans="1:7">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="43.0" customHeight="true">
-      <c r="A20" s="7" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" ht="43" customHeight="1" spans="1:7">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="43.0" customHeight="true">
-      <c r="A21" s="7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" ht="43" customHeight="1" spans="1:7">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="43.0" customHeight="true">
-      <c r="A22" s="7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" ht="43" customHeight="1" spans="1:7">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="84.0" customHeight="true">
-      <c r="A23" s="7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" ht="84" customHeight="1" spans="1:7">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" ht="43.0" customHeight="true">
-      <c r="A24" s="7" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B24" s="12" t="s">
+    <row r="24" ht="43" customHeight="1" spans="1:7">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="43.0" customHeight="true">
-      <c r="A25" s="7" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B25" s="12" t="s">
+    <row r="25" ht="43" customHeight="1" spans="1:7">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" ht="43.0" customHeight="true">
-      <c r="A26" s="7" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B26" s="22" t="n">
-        <v>863.0</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12" t="s">
+    <row r="26" ht="43" customHeight="1" spans="1:7">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="15">
+        <v>863</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" ht="43.0" customHeight="true">
-      <c r="A27" s="7" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" ht="43" customHeight="1" spans="1:7">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="43.0" customHeight="true">
-      <c r="A28" s="7" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" ht="43" customHeight="1" spans="1:7">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="43.0" customHeight="true">
-      <c r="A29" s="7" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" ht="43" customHeight="1" spans="1:7">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="43.0" customHeight="true">
-      <c r="A30" s="7" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" ht="43" customHeight="1" spans="1:7">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" ht="43.0" customHeight="true">
-      <c r="A31" s="7" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" ht="43" customHeight="1" spans="1:7">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" ht="65.0" customHeight="true">
-      <c r="A32" s="7" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" ht="65" customHeight="1" spans="1:7">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" ht="52.0" customHeight="true">
-      <c r="A33" s="7" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" ht="52" customHeight="1" spans="1:7">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" ht="43.0" customHeight="true">
-      <c r="A34" s="7" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" ht="43" customHeight="1" spans="1:7">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" ht="65.0" customHeight="true">
-      <c r="A35" s="7" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" ht="65" customHeight="1" spans="1:7">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" ht="104.0" customHeight="true">
-      <c r="A36" s="7" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" ht="104" customHeight="1" spans="1:7">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" ht="52.0" customHeight="true">
-      <c r="A37" s="7" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="37" ht="52" customHeight="1" spans="1:7">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" ht="43.0" customHeight="true">
-      <c r="A38" s="7" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" ht="43" customHeight="1" spans="1:7">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" ht="43.0" customHeight="true">
-      <c r="A39" s="7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" ht="43" customHeight="1" spans="1:7">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" ht="43.0" customHeight="true">
-      <c r="A40" s="7" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" ht="43" customHeight="1" spans="1:7">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" ht="43.0" customHeight="true">
-      <c r="A41" s="7" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" ht="43" customHeight="1" spans="1:7">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" ht="43.0" customHeight="true">
-      <c r="A42" s="7" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" ht="43" customHeight="1" spans="1:7">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="10" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" ht="43.0" customHeight="true">
-      <c r="A43" s="7" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B43" s="8" t="s">
+    <row r="43" ht="43" customHeight="1" spans="1:7">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" ht="65.0" customHeight="true">
-      <c r="A44" s="7" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" ht="65" customHeight="1" spans="1:7">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" ht="52.0" customHeight="true">
-      <c r="A45" s="7" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" ht="52" customHeight="1" spans="1:7">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" ht="43.0" customHeight="true">
-      <c r="A46" s="7" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="B46" s="8" t="s">
+    <row r="46" ht="43" customHeight="1" spans="1:7">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" ht="65.0" customHeight="true">
-      <c r="A47" s="7" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" ht="65" customHeight="1" spans="1:7">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="10" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" ht="43.0" customHeight="true">
-      <c r="A48" s="7" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" ht="43" customHeight="1" spans="1:7">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" ht="43.0" customHeight="true">
-      <c r="A49" s="7" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="B49" s="8" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" ht="43" customHeight="1" spans="1:7">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" ht="43.0" customHeight="true">
-      <c r="A50" s="7" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B50" s="8" t="s">
+      <c r="E49" s="5"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" ht="43" customHeight="1" spans="1:7">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" ht="65.0" customHeight="true">
-      <c r="A51" s="7" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B51" s="8" t="s">
+      <c r="E50" s="5"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" ht="65" customHeight="1" spans="1:7">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="10" t="s">
+      <c r="E51" s="5"/>
+      <c r="F51" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" ht="43.0" customHeight="true">
-      <c r="A52" s="7" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" ht="43" customHeight="1" spans="1:7">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" ht="169.0" customHeight="true">
-      <c r="A53" s="7" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="E52" s="5"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" ht="169" customHeight="1" spans="1:7">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="43.0" customHeight="true">
-      <c r="A54" s="7" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B54" s="8" t="s">
+    <row r="54" ht="43" customHeight="1" spans="1:7">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-    </row>
-    <row r="55" ht="43.0" customHeight="true">
-      <c r="A55" s="7" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" ht="43" customHeight="1" spans="1:7">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-    </row>
-    <row r="56" ht="91.0" customHeight="true">
-      <c r="A56" s="7" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" ht="91" customHeight="1" spans="1:7">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="E56" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="43.0" customHeight="true">
-      <c r="A57" s="7" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="B57" s="8" t="s">
+    <row r="57" ht="43" customHeight="1" spans="1:7">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-    </row>
-    <row r="58" ht="43.0" customHeight="true">
-      <c r="A58" s="7" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" ht="43" customHeight="1" spans="1:7">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-    </row>
-    <row r="59" ht="43.0" customHeight="true">
-      <c r="A59" s="7" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B59" s="8" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" ht="43" customHeight="1" spans="1:7">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="6"/>
+      <c r="D59" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" ht="104.0" customHeight="true">
-      <c r="A60" s="7" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="E59" s="5"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" ht="104" customHeight="1" spans="1:7">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="10" t="s">
+      <c r="E60" s="5"/>
+      <c r="F60" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="61" ht="43.0" customHeight="true">
-      <c r="A61" s="7" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B61" s="8" t="s">
+    <row r="61" ht="43" customHeight="1" spans="1:7">
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-    </row>
-    <row r="62" ht="52.0" customHeight="true">
-      <c r="A62" s="7" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" ht="52" customHeight="1" spans="1:7">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10" t="s">
+      <c r="E62" s="5"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" ht="43.0" customHeight="true">
-      <c r="A63" s="7" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="B63" s="8" t="s">
+    <row r="63" ht="43" customHeight="1" spans="1:7">
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="6"/>
+      <c r="D63" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10" t="s">
+      <c r="E63" s="5"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" ht="91.0" customHeight="true">
-      <c r="A64" s="7" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="B64" s="8" t="s">
+    <row r="64" ht="91" customHeight="1" spans="1:7">
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="10" t="s">
+      <c r="E64" s="5"/>
+      <c r="F64" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G64" s="10"/>
-    </row>
-    <row r="65" ht="43.0" customHeight="true">
-      <c r="A65" s="7" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" ht="43" customHeight="1" spans="1:7">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10" t="s">
+      <c r="E65" s="5"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" ht="43.0" customHeight="true">
-      <c r="A66" s="7" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="B66" s="8" t="s">
+    <row r="66" ht="43" customHeight="1" spans="1:7">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="10" t="s">
+      <c r="E66" s="5"/>
+      <c r="F66" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="67" ht="43.0" customHeight="true">
-      <c r="A67" s="7" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B67" s="8" t="s">
+    <row r="67" ht="43" customHeight="1" spans="1:7">
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="6"/>
+      <c r="D67" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" ht="43.0" customHeight="true">
-      <c r="A68" s="7" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="B68" s="8" t="s">
+      <c r="E67" s="5"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" ht="43" customHeight="1" spans="1:7">
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="10" t="s">
+      <c r="E68" s="5"/>
+      <c r="F68" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G68" s="10"/>
-    </row>
-    <row r="69" ht="56.0" customHeight="true">
-      <c r="A69" s="7" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" ht="56" customHeight="1" spans="1:7">
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" ht="43.0" customHeight="true">
-      <c r="A70" s="7" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="E69" s="20"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" ht="43" customHeight="1" spans="1:7">
+      <c r="A70" s="4">
+        <v>67</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-    </row>
-    <row r="71" ht="43.0" customHeight="true">
-      <c r="A71" s="7" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="B71" s="8" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" ht="43" customHeight="1" spans="1:7">
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-    </row>
-    <row r="72" ht="43.0" customHeight="true">
-      <c r="A72" s="7" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="E71" s="12"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" ht="43" customHeight="1" spans="1:7">
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-    </row>
-    <row r="73" ht="43.0" customHeight="true">
-      <c r="A73" s="7" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="B73" s="8" t="s">
+      <c r="E72" s="5"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" ht="43" customHeight="1" spans="1:7">
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-    </row>
-    <row r="74" ht="43.0" customHeight="true">
-      <c r="A74" s="7" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="E73" s="5"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" ht="43" customHeight="1" spans="1:7">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="8" t="s">
+      <c r="C74" s="6"/>
+      <c r="D74" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10" t="s">
+      <c r="E74" s="5"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="75" ht="52.0" customHeight="true">
-      <c r="A75" s="7" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B75" s="8" t="s">
+    <row r="75" ht="52" customHeight="1" spans="1:7">
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" ht="43.0" customHeight="true">
-      <c r="A76" s="7" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="B76" s="8" t="s">
+      <c r="E75" s="5"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" ht="43" customHeight="1" spans="1:7">
+      <c r="A76" s="4">
+        <v>73</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" ht="43.0" customHeight="true">
-      <c r="A77" s="7" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="B77" s="8" t="s">
+      <c r="E76" s="5"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" ht="43" customHeight="1" spans="1:7">
+      <c r="A77" s="4">
+        <v>74</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" ht="52.0" customHeight="true">
-      <c r="A78" s="7" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="B78" s="8" t="s">
+      <c r="E77" s="5"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" ht="52" customHeight="1" spans="1:7">
+      <c r="A78" s="4">
+        <v>75</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" ht="96.0" customHeight="true">
-      <c r="A79" s="7" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="B79" s="16" t="s">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" ht="96" customHeight="1" spans="1:7">
+      <c r="A79" s="4">
+        <v>76</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="23" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" ht="43.0" customHeight="true">
-      <c r="A80" s="7" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="B80" s="16" t="s">
+      <c r="E79" s="21"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" ht="43" customHeight="1" spans="1:7">
+      <c r="A80" s="4">
+        <v>77</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" ht="43.0" customHeight="true">
-      <c r="A81" s="7" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B81" s="16" t="s">
+      <c r="E80" s="22"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" ht="43" customHeight="1" spans="1:7">
+      <c r="A81" s="4">
+        <v>78</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" ht="43.0" customHeight="true">
-      <c r="A82" s="7" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="B82" s="16" t="s">
+      <c r="E81" s="22"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" ht="43" customHeight="1" spans="1:7">
+      <c r="A82" s="4">
+        <v>79</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" ht="43.0" customHeight="true">
-      <c r="A83" s="7" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B83" s="16" t="s">
+      <c r="E82" s="21"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" ht="43" customHeight="1" spans="1:7">
+      <c r="A83" s="4">
+        <v>80</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="26"/>
-      <c r="D83" s="23" t="s">
+      <c r="C83" s="23"/>
+      <c r="D83" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" ht="43.0" customHeight="true">
-      <c r="A84" s="27" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="B84" s="28" t="s">
+      <c r="E83" s="21"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" ht="43" customHeight="1" spans="1:7">
+      <c r="A84" s="24">
+        <v>81</v>
+      </c>
+      <c r="B84" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="31" t="s">
+      <c r="E84" s="33"/>
+      <c r="F84" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G84" s="32"/>
-    </row>
-    <row r="85" ht="43.0" customHeight="true">
-      <c r="A85" s="7" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="B85" s="28" t="s">
+      <c r="G84" s="35"/>
+    </row>
+    <row r="85" ht="43" customHeight="1" spans="1:7">
+      <c r="A85" s="4">
+        <v>82</v>
+      </c>
+      <c r="B85" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="29" t="s">
+      <c r="C85" s="23"/>
+      <c r="D85" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" ht="96.0" customHeight="true">
-      <c r="A86" s="7" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="B86" s="16" t="s">
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" ht="96" customHeight="1" spans="1:7">
+      <c r="A86" s="4">
+        <v>83</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="23" t="s">
+      <c r="C86" s="23"/>
+      <c r="D86" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" ht="43.0" customHeight="true">
-      <c r="A87" s="7" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="B87" s="16" t="s">
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" ht="43" customHeight="1" spans="1:7">
+      <c r="A87" s="4">
+        <v>84</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="23" t="s">
+      <c r="C87" s="23"/>
+      <c r="D87" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-    </row>
-    <row r="88" ht="48.0" customHeight="true">
-      <c r="A88" s="7" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="B88" s="16" t="s">
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" ht="48" customHeight="1" spans="1:7">
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="23" t="s">
+      <c r="C88" s="23"/>
+      <c r="D88" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" ht="22" customHeight="1" spans="1:7">
+      <c r="A89" s="27">
+        <v>86</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="31">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>257</v>
+      </c>
+      <c r="D90" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>